--- a/etc/pesquisa-bib-dissert.xlsx
+++ b/etc/pesquisa-bib-dissert.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F4119597\OneDrive - Banco do Brasil S.A\pessoal\ppgi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F54F32-23B0-48D5-BC4B-C125FF8271A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660BD790-8A73-4003-9636-2971FB51082B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1783B4B3-1C0C-47FC-9B61-31D612B4AB06}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
   <si>
     <t>arxiv</t>
   </si>
@@ -622,7 +622,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -848,7 +848,9 @@
       <c r="D11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="F11" s="8" t="s">
         <v>38</v>
       </c>
@@ -866,7 +868,9 @@
       <c r="D12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="F12" s="6" t="s">
         <v>40</v>
       </c>
